--- a/day8/revised sheet.xlsx
+++ b/day8/revised sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_learning\quest_python\day8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309E9F56-3DAC-49BA-9176-5D70FFC0D3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5B47BB-FD4D-44CF-B8EF-D8506DCF3BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29610" yWindow="1230" windowWidth="17280" windowHeight="8880" xr2:uid="{D51C4428-41BD-47DE-BF65-EEEA64AB1912}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="31">
   <si>
     <t>Inputs</t>
   </si>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CA32F9-6F89-4856-8E24-04950087F401}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,6 +834,9 @@
         <v>9</v>
       </c>
       <c r="G15" s="4"/>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -852,6 +855,9 @@
         <v>9</v>
       </c>
       <c r="G16" s="4"/>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -870,6 +876,9 @@
         <v>9</v>
       </c>
       <c r="G17" s="4"/>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
@@ -888,6 +897,9 @@
         <v>9</v>
       </c>
       <c r="G18" s="4"/>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -906,6 +918,9 @@
         <v>9</v>
       </c>
       <c r="G19" s="4"/>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
@@ -924,6 +939,9 @@
         <v>9</v>
       </c>
       <c r="G20" s="4"/>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
@@ -1101,6 +1119,9 @@
       <c r="G28" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="H28" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
@@ -1121,6 +1142,9 @@
       <c r="G29" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="H29" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
@@ -1141,6 +1165,9 @@
       <c r="G30" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="H30" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
@@ -1161,6 +1188,9 @@
       <c r="G31" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="H31" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
@@ -1180,6 +1210,9 @@
       </c>
       <c r="G32" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
